--- a/data/bfko/sample_bfko_test.xlsx
+++ b/data/bfko/sample_bfko_test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bu Intan\Bu Intan\data\bfko\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bu Intan\data\bfko\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E33042-D3BC-4680-9490-EDAAD6BD0503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBCB428-4DC8-4861-9CD9-E19CBCD4D3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,12 +476,14 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="9" max="9" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
